--- a/data/trans_orig/P41E_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Provincia-trans_orig.xlsx
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3106</v>
+        <v>3694</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.005983003300123489</v>
+        <v>0.005983003300123488</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0188844908613315</v>
+        <v>0.02246033411042945</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3298</v>
+        <v>3665</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003060744105937126</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01026021315819135</v>
+        <v>0.01140063968590514</v>
       </c>
     </row>
     <row r="5">
@@ -854,16 +854,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3807</v>
+        <v>4579</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.00487602217807688</v>
+        <v>0.004876022178076879</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02424981760554692</v>
+        <v>0.02916585069007013</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -872,19 +872,19 @@
         <v>3476</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1495</v>
+        <v>1465</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7150</v>
+        <v>6998</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02113511087498928</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009088285858398392</v>
+        <v>0.008905524205671065</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04347791455399509</v>
+        <v>0.04255620604425499</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -893,19 +893,19 @@
         <v>4241</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1950</v>
+        <v>1977</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7943</v>
+        <v>8437</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01319373610879733</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006066910086783853</v>
+        <v>0.006150980473466094</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02470782678147618</v>
+        <v>0.02624673277605915</v>
       </c>
     </row>
     <row r="7">
@@ -922,19 +922,19 @@
         <v>21750</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14594</v>
+        <v>14943</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31152</v>
+        <v>31071</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1385251764797141</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09294828402881401</v>
+        <v>0.09517106573828325</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1984105573143691</v>
+        <v>0.1978969037659213</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -943,19 +943,19 @@
         <v>26811</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19926</v>
+        <v>20327</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34536</v>
+        <v>34535</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1630372148688514</v>
+        <v>0.1630372148688513</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1211662330066181</v>
+        <v>0.1236092448974893</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2100084353185504</v>
+        <v>0.2100037316622319</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -964,19 +964,19 @@
         <v>48561</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38304</v>
+        <v>39175</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58986</v>
+        <v>59961</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1510648782416215</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1191589865059826</v>
+        <v>0.1218682383163193</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1834956453633696</v>
+        <v>0.1865299771348576</v>
       </c>
     </row>
     <row r="8">
@@ -993,19 +993,19 @@
         <v>134493</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>124983</v>
+        <v>125525</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>141635</v>
+        <v>141326</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8565988013422092</v>
+        <v>0.8565988013422089</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7960288712615355</v>
+        <v>0.7994806220750253</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.902090431245624</v>
+        <v>0.9001218674640158</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>234</v>
@@ -1014,19 +1014,19 @@
         <v>133178</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>126037</v>
+        <v>125322</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>141243</v>
+        <v>140383</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8098446709560361</v>
+        <v>0.8098446709560359</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7664220260827406</v>
+        <v>0.7620709518296988</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8588887663822173</v>
+        <v>0.8536546142760749</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>381</v>
@@ -1035,19 +1035,19 @@
         <v>267671</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>257059</v>
+        <v>255984</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>279199</v>
+        <v>278039</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.832680641543644</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7996670296923548</v>
+        <v>0.7963230727420519</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8685434243348235</v>
+        <v>0.864933724407885</v>
       </c>
     </row>
     <row r="9">
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8085</v>
+        <v>6687</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01039029321648207</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06633532299192513</v>
+        <v>0.05486824310869099</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1163,16 +1163,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3023</v>
+        <v>2622</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.005065114266412179</v>
+        <v>0.00506511426641218</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02569504078413175</v>
+        <v>0.02228888743527635</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7687</v>
+        <v>7231</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.007774761401257971</v>
+        <v>0.00777476140125797</v>
       </c>
       <c r="V10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03209246216727704</v>
+        <v>0.03018881056668157</v>
       </c>
     </row>
     <row r="11">
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6937</v>
+        <v>6755</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01092177174732646</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05691897940356179</v>
+        <v>0.05542488677376402</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4674</v>
+        <v>4494</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01255050336075562</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0397305242901486</v>
+        <v>0.03820268177557948</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -1252,19 +1252,19 @@
         <v>2808</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>688</v>
+        <v>715</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7821</v>
+        <v>9252</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01172174474228644</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002874322867176594</v>
+        <v>0.002984903826957441</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03265255336304655</v>
+        <v>0.03862640575892261</v>
       </c>
     </row>
     <row r="12">
@@ -1281,19 +1281,19 @@
         <v>8218</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2964</v>
+        <v>3120</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16821</v>
+        <v>17023</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.06743064693990387</v>
+        <v>0.06743064693990386</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02432205640528039</v>
+        <v>0.0256036015314813</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1380168537397978</v>
+        <v>0.1396766599513193</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -1302,19 +1302,19 @@
         <v>11146</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6852</v>
+        <v>6450</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17852</v>
+        <v>17377</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.0947467551813571</v>
+        <v>0.09474675518135711</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05824798254396629</v>
+        <v>0.05483059981149034</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1517473426308567</v>
+        <v>0.1477079350702525</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -1323,19 +1323,19 @@
         <v>19364</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12731</v>
+        <v>12137</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28894</v>
+        <v>29589</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.08084731346764346</v>
+        <v>0.08084731346764344</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0531527152466502</v>
+        <v>0.05067363926461383</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1206346198319813</v>
+        <v>0.1235381044597715</v>
       </c>
     </row>
     <row r="13">
@@ -1352,19 +1352,19 @@
         <v>60677</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48157</v>
+        <v>46970</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74974</v>
+        <v>74692</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4978633242082943</v>
+        <v>0.4978633242082944</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3951321826324136</v>
+        <v>0.3853929011128321</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6151693529580919</v>
+        <v>0.6128599532261412</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -1373,19 +1373,19 @@
         <v>59442</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49529</v>
+        <v>49728</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69147</v>
+        <v>68743</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.5052763524815711</v>
+        <v>0.5052763524815712</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4210183971256643</v>
+        <v>0.4227090660006523</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5877743186270218</v>
+        <v>0.5843413560909686</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>129</v>
@@ -1394,19 +1394,19 @@
         <v>120118</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>103827</v>
+        <v>104244</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>138249</v>
+        <v>136336</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5015043307317759</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4334881923041944</v>
+        <v>0.4352279967565013</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5772023160773528</v>
+        <v>0.5692143958714053</v>
       </c>
     </row>
     <row r="14">
@@ -1423,19 +1423,19 @@
         <v>50382</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>36676</v>
+        <v>37049</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>64231</v>
+        <v>64651</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4133939638879933</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3009317174018567</v>
+        <v>0.3039903277495958</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5270206415750015</v>
+        <v>0.5304715279314508</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -1444,19 +1444,19 @@
         <v>44982</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36533</v>
+        <v>36155</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>54733</v>
+        <v>54604</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3823612747099039</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3105473803474059</v>
+        <v>0.3073274603905375</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4652510365876741</v>
+        <v>0.4641544875593187</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>94</v>
@@ -1465,19 +1465,19 @@
         <v>95364</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>79154</v>
+        <v>80233</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>113465</v>
+        <v>111697</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3981518496570362</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3304768084134012</v>
+        <v>0.3349801589647508</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4737244993811201</v>
+        <v>0.4663428969145859</v>
       </c>
     </row>
     <row r="15">
@@ -1569,19 +1569,19 @@
         <v>17917</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11580</v>
+        <v>11618</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27454</v>
+        <v>27731</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09488440151959075</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06132533114450656</v>
+        <v>0.06152695990257838</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1453930851613311</v>
+        <v>0.146855756131629</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -1590,19 +1590,19 @@
         <v>16648</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11159</v>
+        <v>11182</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23369</v>
+        <v>24022</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08439918789176556</v>
+        <v>0.08439918789176555</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05657111066656243</v>
+        <v>0.05668768907620465</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1184711585634462</v>
+        <v>0.1217825147944874</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -1611,19 +1611,19 @@
         <v>34565</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25164</v>
+        <v>26222</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45141</v>
+        <v>45441</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08952735665335484</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06517821833093143</v>
+        <v>0.06791639722761544</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1169201060488516</v>
+        <v>0.1176971839628042</v>
       </c>
     </row>
     <row r="17">
@@ -1640,19 +1640,19 @@
         <v>5311</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2271</v>
+        <v>2060</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10710</v>
+        <v>10039</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02812782124381518</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01202633006171061</v>
+        <v>0.0109106716263769</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05671665192638558</v>
+        <v>0.05316281308583808</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1661,19 +1661,19 @@
         <v>8712</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4858</v>
+        <v>4870</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13691</v>
+        <v>14066</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.04416681162779698</v>
+        <v>0.04416681162779697</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02462772996117936</v>
+        <v>0.02469056430662096</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06940679094217045</v>
+        <v>0.0713055656428597</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -1682,19 +1682,19 @@
         <v>14024</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9032</v>
+        <v>8913</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20966</v>
+        <v>21461</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03632236969517928</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02339415065689981</v>
+        <v>0.0230858252369655</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05430467386192607</v>
+        <v>0.05558488354187665</v>
       </c>
     </row>
     <row r="18">
@@ -1711,19 +1711,19 @@
         <v>28682</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19827</v>
+        <v>20254</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>40124</v>
+        <v>40316</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1518942667168313</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1050019817995981</v>
+        <v>0.1072636371111562</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2124875897882033</v>
+        <v>0.2135030454998356</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>60</v>
@@ -1732,19 +1732,19 @@
         <v>37699</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29336</v>
+        <v>29191</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>47935</v>
+        <v>47709</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1911143624810319</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1487210337590137</v>
+        <v>0.1479847104901538</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2430085211830774</v>
+        <v>0.2418609484971509</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>90</v>
@@ -1753,19 +1753,19 @@
         <v>66381</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>53750</v>
+        <v>53549</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>80336</v>
+        <v>81704</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1719323718165048</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1392179109798485</v>
+        <v>0.1386969158126422</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2080783984298503</v>
+        <v>0.2116205956194155</v>
       </c>
     </row>
     <row r="19">
@@ -1782,19 +1782,19 @@
         <v>34765</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25286</v>
+        <v>25760</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46838</v>
+        <v>45652</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.184107040990449</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1339093116698658</v>
+        <v>0.1364214336673715</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2480440704290549</v>
+        <v>0.2417611128900355</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -1803,19 +1803,19 @@
         <v>41069</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31534</v>
+        <v>32315</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50261</v>
+        <v>51140</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2082000852505242</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1598628572055276</v>
+        <v>0.1638195761572121</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2547996789526064</v>
+        <v>0.2592569201667964</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>100</v>
@@ -1824,19 +1824,19 @@
         <v>75834</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>62960</v>
+        <v>62796</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>90211</v>
+        <v>90619</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1964165201910364</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.163073339394316</v>
+        <v>0.1626476838269171</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2336544171732697</v>
+        <v>0.2347121270328383</v>
       </c>
     </row>
     <row r="20">
@@ -1853,19 +1853,19 @@
         <v>102154</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>88503</v>
+        <v>89681</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>115797</v>
+        <v>116406</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5409864695293138</v>
+        <v>0.5409864695293137</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4686921486291516</v>
+        <v>0.4749308821014603</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6132387965130864</v>
+        <v>0.6164624954834113</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>135</v>
@@ -1874,19 +1874,19 @@
         <v>93129</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>82628</v>
+        <v>81733</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>104941</v>
+        <v>104097</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4721195527488814</v>
+        <v>0.4721195527488813</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4188854687939033</v>
+        <v>0.4143483420846366</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5319989824672045</v>
+        <v>0.5277226811784442</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>246</v>
@@ -1895,19 +1895,19 @@
         <v>195283</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>177480</v>
+        <v>178176</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>213039</v>
+        <v>213160</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5058013816439245</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.459688476787137</v>
+        <v>0.4614920763266084</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5517889568825486</v>
+        <v>0.5521037160161346</v>
       </c>
     </row>
     <row r="21">
@@ -1999,19 +1999,19 @@
         <v>2128</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5547</v>
+        <v>5914</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01089417571438464</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002849921781270603</v>
+        <v>0.002878654545773932</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02839209201469996</v>
+        <v>0.0302745241151381</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -2020,19 +2020,19 @@
         <v>14047</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9129</v>
+        <v>9420</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19858</v>
+        <v>19996</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07436128087963544</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04832300983178413</v>
+        <v>0.04986850595834443</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1051220889105905</v>
+        <v>0.1058489641117456</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>31</v>
@@ -2041,19 +2041,19 @@
         <v>16176</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11179</v>
+        <v>11240</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23031</v>
+        <v>23262</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04209491922752732</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02909086564470407</v>
+        <v>0.02925087490780855</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05993476730333676</v>
+        <v>0.06053696120065891</v>
       </c>
     </row>
     <row r="23">
@@ -2073,16 +2073,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4110</v>
+        <v>4241</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.005999337544423998</v>
+        <v>0.005999337544423999</v>
       </c>
       <c r="H23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0210378086087274</v>
+        <v>0.02171058660327366</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2094,16 +2094,16 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4082</v>
+        <v>3927</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.005895217803827774</v>
+        <v>0.005895217803827775</v>
       </c>
       <c r="O23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02160879887023279</v>
+        <v>0.02078669286867297</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -2112,19 +2112,19 @@
         <v>2286</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5992</v>
+        <v>5672</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.005948151763813094</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001571019017052207</v>
+        <v>0.001566045096720118</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0155939440892832</v>
+        <v>0.01476109017611069</v>
       </c>
     </row>
     <row r="24">
@@ -2141,19 +2141,19 @@
         <v>23804</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16385</v>
+        <v>16701</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>33276</v>
+        <v>32832</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1218504029633436</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08386911834351324</v>
+        <v>0.0854880895506237</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1703343465703412</v>
+        <v>0.1680618177011128</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>58</v>
@@ -2162,19 +2162,19 @@
         <v>28973</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21972</v>
+        <v>22298</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>38056</v>
+        <v>37022</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.153371922641396</v>
+        <v>0.1533719226413961</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1163127849228399</v>
+        <v>0.118035280686099</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2014564731524128</v>
+        <v>0.1959814407564139</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>95</v>
@@ -2183,19 +2183,19 @@
         <v>52777</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>42057</v>
+        <v>42699</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>64710</v>
+        <v>65436</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1373465382929549</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1094477068093076</v>
+        <v>0.1111195975869759</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1683998079137647</v>
+        <v>0.1702899749824384</v>
       </c>
     </row>
     <row r="25">
@@ -2212,19 +2212,19 @@
         <v>34013</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23668</v>
+        <v>23601</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46948</v>
+        <v>47980</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1741043719397774</v>
+        <v>0.1741043719397775</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.121151865350385</v>
+        <v>0.1208066097291089</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2403167740368013</v>
+        <v>0.2455982972171702</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -2233,19 +2233,19 @@
         <v>31545</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23968</v>
+        <v>24041</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40810</v>
+        <v>41436</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1669900898675043</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1268756438372087</v>
+        <v>0.1272628652823283</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.216030941754682</v>
+        <v>0.2193491098254219</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>85</v>
@@ -2254,19 +2254,19 @@
         <v>65558</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51462</v>
+        <v>52449</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>80447</v>
+        <v>81821</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1706069556067149</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1339230353467109</v>
+        <v>0.136493104033644</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2093531907880858</v>
+        <v>0.2129290325785</v>
       </c>
     </row>
     <row r="26">
@@ -2283,19 +2283,19 @@
         <v>134241</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>118704</v>
+        <v>117983</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>147133</v>
+        <v>146801</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6871517118380702</v>
+        <v>0.6871517118380703</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6076207509466075</v>
+        <v>0.6039327899558653</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7531469666637259</v>
+        <v>0.7514445510722824</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>137</v>
@@ -2304,19 +2304,19 @@
         <v>113227</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>100771</v>
+        <v>101417</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>124253</v>
+        <v>124164</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5993814888076364</v>
+        <v>0.5993814888076365</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5334438664318888</v>
+        <v>0.5368654932791661</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6577523367967083</v>
+        <v>0.6572809889005421</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>219</v>
@@ -2325,19 +2325,19 @@
         <v>247467</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>229979</v>
+        <v>226110</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>269031</v>
+        <v>265153</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6440034351089897</v>
+        <v>0.6440034351089898</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5984909395037991</v>
+        <v>0.5884236721931432</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7001198491577738</v>
+        <v>0.6900287492345814</v>
       </c>
     </row>
     <row r="27">
@@ -2429,19 +2429,19 @@
         <v>4565</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2120</v>
+        <v>1907</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9210</v>
+        <v>9135</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.05196421179292495</v>
+        <v>0.05196421179292497</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02412782058319935</v>
+        <v>0.02170214581816198</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.104826950418035</v>
+        <v>0.1039802085634609</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2453,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3589</v>
+        <v>3538</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.01083999080118483</v>
+        <v>0.01083999080118482</v>
       </c>
       <c r="O28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03729576345982293</v>
+        <v>0.03676180569324522</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -2471,19 +2471,19 @@
         <v>5609</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2687</v>
+        <v>2790</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>10261</v>
+        <v>10687</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.03046643078432702</v>
+        <v>0.03046643078432703</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01459370956971554</v>
+        <v>0.01515291706956584</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05573864776292684</v>
+        <v>0.05805265150451359</v>
       </c>
     </row>
     <row r="29">
@@ -2500,19 +2500,19 @@
         <v>2025</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5389</v>
+        <v>5624</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02304445729961252</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005736342576532143</v>
+        <v>0.005676974673946424</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0613356284108722</v>
+        <v>0.06400785868356491</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2144</v>
+        <v>2599</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.004209506108175678</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0222830231291293</v>
+        <v>0.02701063635135326</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2542,19 +2542,19 @@
         <v>2430</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>721</v>
+        <v>776</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5937</v>
+        <v>6391</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01319844328994978</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003916061721398041</v>
+        <v>0.004216001306792895</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03224806092267261</v>
+        <v>0.03471447199176623</v>
       </c>
     </row>
     <row r="30">
@@ -2571,19 +2571,19 @@
         <v>3658</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1260</v>
+        <v>1222</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8497</v>
+        <v>8502</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04163310590901614</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01433829705889669</v>
+        <v>0.01391050248738945</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09671749923861941</v>
+        <v>0.09677163843278655</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>9</v>
@@ -2592,19 +2592,19 @@
         <v>3750</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1715</v>
+        <v>1764</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6643</v>
+        <v>6950</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0389670682143935</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01781941240563394</v>
+        <v>0.01833352546655879</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06902452985588964</v>
+        <v>0.07221774402292129</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>14</v>
@@ -2613,19 +2613,19 @@
         <v>7408</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4070</v>
+        <v>4339</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>12541</v>
+        <v>12528</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.04023942857878352</v>
+        <v>0.04023942857878351</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02210639451429957</v>
+        <v>0.02356840477253115</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06812418818484209</v>
+        <v>0.06805473686926139</v>
       </c>
     </row>
     <row r="31">
@@ -2642,19 +2642,19 @@
         <v>70056</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>61884</v>
+        <v>62536</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>76340</v>
+        <v>75817</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.7973822936443716</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7043743030206857</v>
+        <v>0.7117878022074292</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.8689089660826704</v>
+        <v>0.8629589642725851</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>169</v>
@@ -2663,19 +2663,19 @@
         <v>78960</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>72658</v>
+        <v>71505</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>84467</v>
+        <v>83676</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.8205040434629524</v>
+        <v>0.8205040434629521</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.7550105144977146</v>
+        <v>0.7430323760029105</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.8777214608757231</v>
+        <v>0.869502153992787</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>266</v>
@@ -2684,19 +2684,19 @@
         <v>149016</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>140144</v>
+        <v>139896</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>156928</v>
+        <v>156976</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.8094692414855301</v>
+        <v>0.80946924148553</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.7612769350114232</v>
+        <v>0.7599259011060118</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.8524498684323734</v>
+        <v>0.8527084464828352</v>
       </c>
     </row>
     <row r="32">
@@ -2713,19 +2713,19 @@
         <v>7554</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3643</v>
+        <v>3063</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13646</v>
+        <v>13423</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08597593135407479</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04146574214782445</v>
+        <v>0.03486241810889384</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1553162125432434</v>
+        <v>0.1527838907941025</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>21</v>
@@ -2734,19 +2734,19 @@
         <v>12075</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7433</v>
+        <v>7838</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18049</v>
+        <v>18988</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1254793914132936</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07723409637886984</v>
+        <v>0.08144324153585691</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1875582270327321</v>
+        <v>0.1973111061443347</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>30</v>
@@ -2755,19 +2755,19 @@
         <v>19629</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13412</v>
+        <v>13425</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>26952</v>
+        <v>28117</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1066264558614096</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07285314809339358</v>
+        <v>0.07292652071499031</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1464080328928547</v>
+        <v>0.1527340800992966</v>
       </c>
     </row>
     <row r="33">
@@ -2859,19 +2859,19 @@
         <v>20245</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>14362</v>
+        <v>13871</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>28976</v>
+        <v>27919</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1088400196884989</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07721212178528723</v>
+        <v>0.07457054844387909</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1557753222780373</v>
+        <v>0.1500955828755471</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>51</v>
@@ -2880,19 +2880,19 @@
         <v>23343</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>17437</v>
+        <v>17614</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>30772</v>
+        <v>30566</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1544606874572134</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1153797436313843</v>
+        <v>0.116555377471936</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2036198045505839</v>
+        <v>0.2022595020872994</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>86</v>
@@ -2901,19 +2901,19 @@
         <v>43588</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>35108</v>
+        <v>34202</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>54618</v>
+        <v>54157</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1292898577776986</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1041373677638951</v>
+        <v>0.1014484683157299</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1620066265850322</v>
+        <v>0.1606398872947779</v>
       </c>
     </row>
     <row r="35">
@@ -2930,19 +2930,19 @@
         <v>5328</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2672</v>
+        <v>2230</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>10532</v>
+        <v>10095</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02864548166625002</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01436432461561241</v>
+        <v>0.01198981090874283</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05661795233127168</v>
+        <v>0.05426984817133827</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -2951,19 +2951,19 @@
         <v>2483</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>599</v>
+        <v>867</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6313</v>
+        <v>6533</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01643234379725507</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.00396053569941371</v>
+        <v>0.005738231256668733</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04177206214459599</v>
+        <v>0.04323115907144318</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>12</v>
@@ -2972,19 +2972,19 @@
         <v>7812</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4168</v>
+        <v>4351</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>13758</v>
+        <v>13414</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02317084255644511</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01236408320317671</v>
+        <v>0.01290668492472737</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04080941929091615</v>
+        <v>0.03978857036958456</v>
       </c>
     </row>
     <row r="36">
@@ -3001,19 +3001,19 @@
         <v>30676</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>21950</v>
+        <v>21527</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>41937</v>
+        <v>41123</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1649167686580773</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1180022947097293</v>
+        <v>0.1157297915660529</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2254548551755576</v>
+        <v>0.2210784764766997</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>48</v>
@@ -3022,19 +3022,19 @@
         <v>25345</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>18657</v>
+        <v>19504</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>33096</v>
+        <v>33015</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1677134960287814</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1234554487131799</v>
+        <v>0.1290589041088643</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2189990347545944</v>
+        <v>0.218462854876158</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>85</v>
@@ -3043,19 +3043,19 @@
         <v>56022</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>44858</v>
+        <v>44461</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>68460</v>
+        <v>68960</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1661704246150765</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1330581408902057</v>
+        <v>0.1318804578138598</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2030650441162041</v>
+        <v>0.2045463194298211</v>
       </c>
     </row>
     <row r="37">
@@ -3072,19 +3072,19 @@
         <v>23535</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>16110</v>
+        <v>16128</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>32259</v>
+        <v>33526</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.1265274451023179</v>
+        <v>0.1265274451023178</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08660968331504902</v>
+        <v>0.08670546542619111</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1734260290841605</v>
+        <v>0.1802370869868484</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>30</v>
@@ -3093,19 +3093,19 @@
         <v>16398</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>11296</v>
+        <v>11722</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>23084</v>
+        <v>22829</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1085049397892409</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07474982035386905</v>
+        <v>0.07756447160944351</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1527492908593311</v>
+        <v>0.1510608954106909</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>60</v>
@@ -3114,19 +3114,19 @@
         <v>39933</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>30247</v>
+        <v>30624</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>50279</v>
+        <v>51158</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1184487094406073</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08971781194880973</v>
+        <v>0.09083530016616298</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1491373367396902</v>
+        <v>0.1517452127100548</v>
       </c>
     </row>
     <row r="38">
@@ -3143,19 +3143,19 @@
         <v>106225</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>93425</v>
+        <v>94217</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>119103</v>
+        <v>117409</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.571070284884856</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5022549643981307</v>
+        <v>0.5065110723789306</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.640300774912222</v>
+        <v>0.6311965112162853</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>138</v>
@@ -3164,19 +3164,19 @@
         <v>83554</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>74259</v>
+        <v>73513</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>92970</v>
+        <v>92992</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5528885329275093</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4913821577828525</v>
+        <v>0.4864431860708273</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6151957170374254</v>
+        <v>0.6153379558417503</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>276</v>
@@ -3185,19 +3185,19 @@
         <v>189780</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>173993</v>
+        <v>173940</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>204929</v>
+        <v>204255</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.5629201656101724</v>
+        <v>0.5629201656101726</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5160954272370225</v>
+        <v>0.5159374793010735</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6078563485048849</v>
+        <v>0.6058574528266208</v>
       </c>
     </row>
     <row r="39">
@@ -3289,19 +3289,19 @@
         <v>2841</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>7719</v>
+        <v>7766</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.008723691992807706</v>
+        <v>0.008723691992807705</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.002841665326340098</v>
+        <v>0.002836989273096491</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02370340262595156</v>
+        <v>0.02384761651867243</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>4</v>
@@ -3310,19 +3310,19 @@
         <v>2713</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6204</v>
+        <v>6232</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.007768722105390685</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.002009485777721247</v>
+        <v>0.002006876727134925</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01776645415964593</v>
+        <v>0.01784394802421423</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>7</v>
@@ -3331,19 +3331,19 @@
         <v>5554</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2303</v>
+        <v>2332</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>10778</v>
+        <v>11227</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.008229534266792434</v>
+        <v>0.008229534266792432</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.003412196470135842</v>
+        <v>0.003454925324843613</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01597064238402815</v>
+        <v>0.01663499953625511</v>
       </c>
     </row>
     <row r="41">
@@ -3360,19 +3360,19 @@
         <v>2649</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7422</v>
+        <v>7876</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.008135622155360652</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.002552911548090345</v>
+        <v>0.002530393959223231</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02279020940269883</v>
+        <v>0.02418417806078676</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>3</v>
@@ -3381,19 +3381,19 @@
         <v>3074</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>9809</v>
+        <v>10066</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.008801994123048129</v>
+        <v>0.008801994123048128</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.001913134655070436</v>
+        <v>0.00191673758565238</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0280882248365107</v>
+        <v>0.02882274079912614</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>6</v>
@@ -3402,19 +3402,19 @@
         <v>5723</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2441</v>
+        <v>2396</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>13797</v>
+        <v>14359</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.008480442301599431</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.003617456222847815</v>
+        <v>0.003550232445853597</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02044361547099053</v>
+        <v>0.0212768124767524</v>
       </c>
     </row>
     <row r="42">
@@ -3431,19 +3431,19 @@
         <v>18696</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>11068</v>
+        <v>11332</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>29622</v>
+        <v>30525</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.05740976263318668</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.03398709947449228</v>
+        <v>0.03479847780444486</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.09095914186824891</v>
+        <v>0.09373318820462159</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>22</v>
@@ -3452,19 +3452,19 @@
         <v>16742</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>10943</v>
+        <v>10208</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>25745</v>
+        <v>25961</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04794182894431941</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03133401028933003</v>
+        <v>0.02923109010832195</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.07372129055976311</v>
+        <v>0.07433925979535029</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>39</v>
@@ -3473,19 +3473,19 @@
         <v>35439</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>24845</v>
+        <v>25412</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>50075</v>
+        <v>48621</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.05251049550089128</v>
+        <v>0.05251049550089127</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.03681401789426796</v>
+        <v>0.03765439424435986</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.07419854884106988</v>
+        <v>0.07204299869865864</v>
       </c>
     </row>
     <row r="43">
@@ -3502,19 +3502,19 @@
         <v>133575</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>113281</v>
+        <v>112614</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>154250</v>
+        <v>152814</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4101668092117374</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.347851134955702</v>
+        <v>0.345802340440714</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4736534290051769</v>
+        <v>0.4692428489628759</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>183</v>
@@ -3523,19 +3523,19 @@
         <v>143146</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>126462</v>
+        <v>126301</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>161053</v>
+        <v>161308</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.4098957788131391</v>
+        <v>0.409895778813139</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.362121628157485</v>
+        <v>0.3616613999339064</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4611712621521714</v>
+        <v>0.4619014940295816</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>304</v>
@@ -3544,19 +3544,19 @@
         <v>276721</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>250684</v>
+        <v>250662</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>301282</v>
+        <v>301730</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.4100265621031981</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3714464704194098</v>
+        <v>0.3714141212927861</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4464198096741122</v>
+        <v>0.4470833479379254</v>
       </c>
     </row>
     <row r="44">
@@ -3573,19 +3573,19 @@
         <v>167899</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>146912</v>
+        <v>148224</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>187853</v>
+        <v>187745</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.5155641140069076</v>
+        <v>0.5155641140069075</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4511206036602047</v>
+        <v>0.4551504365785142</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5768387744237855</v>
+        <v>0.5765046481089356</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>224</v>
@@ -3594,19 +3594,19 @@
         <v>183550</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>165700</v>
+        <v>166360</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>199553</v>
+        <v>201891</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.5255916760141027</v>
+        <v>0.5255916760141026</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4744787456308711</v>
+        <v>0.4763682876367991</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5714176664292259</v>
+        <v>0.5781123125024802</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>363</v>
@@ -3615,19 +3615,19 @@
         <v>351448</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>328211</v>
+        <v>324227</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>379959</v>
+        <v>377413</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5207529658275187</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.486320858381325</v>
+        <v>0.4804179630345723</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5629988377630937</v>
+        <v>0.5592258004679305</v>
       </c>
     </row>
     <row r="45">
@@ -3719,19 +3719,19 @@
         <v>65123</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>53326</v>
+        <v>53402</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>78831</v>
+        <v>79776</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1643100928017887</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.134546917921956</v>
+        <v>0.1347365278896632</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1988973274079929</v>
+        <v>0.2012805172548736</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>116</v>
@@ -3740,19 +3740,19 @@
         <v>74521</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>62600</v>
+        <v>61930</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>86692</v>
+        <v>86975</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2110225407260505</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1772667793932429</v>
+        <v>0.1753696587214472</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2454879642750146</v>
+        <v>0.2462902009050632</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>203</v>
@@ -3761,19 +3761,19 @@
         <v>139644</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>120469</v>
+        <v>121041</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>157364</v>
+        <v>158882</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.1863201061962985</v>
+        <v>0.1863201061962984</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1607362874526772</v>
+        <v>0.1614997496020907</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2099637533253272</v>
+        <v>0.2119887120222474</v>
       </c>
     </row>
     <row r="47">
@@ -3790,19 +3790,19 @@
         <v>54522</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>42753</v>
+        <v>43695</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>67118</v>
+        <v>67807</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1375645617983148</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1078682475685297</v>
+        <v>0.1102455302716467</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1693431504801803</v>
+        <v>0.1710819149627256</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>73</v>
@@ -3811,19 +3811,19 @@
         <v>49479</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>39005</v>
+        <v>39265</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>61295</v>
+        <v>62158</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1401112848682784</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1104504262311478</v>
+        <v>0.1111864024301719</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.173569772793763</v>
+        <v>0.1760144139256728</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>144</v>
@@ -3832,19 +3832,19 @@
         <v>104002</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>87651</v>
+        <v>88534</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>120932</v>
+        <v>121022</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1387645290741229</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1169484281763787</v>
+        <v>0.1181261389784163</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.161353673772585</v>
+        <v>0.1614741509372153</v>
       </c>
     </row>
     <row r="48">
@@ -3861,19 +3861,19 @@
         <v>53771</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>42145</v>
+        <v>41884</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>68340</v>
+        <v>68421</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.135668854388231</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1063356860544002</v>
+        <v>0.1056757597468992</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.172426429631383</v>
+        <v>0.1726305539975222</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>74</v>
@@ -3882,19 +3882,19 @@
         <v>53786</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>42859</v>
+        <v>43082</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>65608</v>
+        <v>66056</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.1523076255556057</v>
+        <v>0.1523076255556056</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1213641551875901</v>
+        <v>0.1219966520755777</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1857844448060693</v>
+        <v>0.1870521791761434</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>136</v>
@@ -3903,19 +3903,19 @@
         <v>107557</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>90190</v>
+        <v>89844</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>125819</v>
+        <v>125969</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1435087256117617</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1203366211711441</v>
+        <v>0.1198740050665259</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1678750266307335</v>
+        <v>0.1680751396997266</v>
       </c>
     </row>
     <row r="49">
@@ -3932,19 +3932,19 @@
         <v>145657</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>126778</v>
+        <v>126379</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>166189</v>
+        <v>164930</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3675044511564009</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3198715726582219</v>
+        <v>0.3188653068705367</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4193079635897698</v>
+        <v>0.4161318776594002</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>133</v>
@@ -3953,19 +3953,19 @@
         <v>105409</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>91873</v>
+        <v>90951</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>120484</v>
+        <v>120064</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2984891039892136</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2601583345157535</v>
+        <v>0.2575474840426325</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3411757994006474</v>
+        <v>0.3399870616047311</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>266</v>
@@ -3974,19 +3974,19 @@
         <v>251066</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>226310</v>
+        <v>225412</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>276976</v>
+        <v>276100</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3349857375569886</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3019546299699303</v>
+        <v>0.3007564979272774</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3695555102143477</v>
+        <v>0.3683868148498176</v>
       </c>
     </row>
     <row r="50">
@@ -4003,19 +4003,19 @@
         <v>77267</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>61024</v>
+        <v>60210</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>94057</v>
+        <v>95588</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1949520398552646</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.153968307282215</v>
+        <v>0.1519157605413205</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2373127431071048</v>
+        <v>0.2411749676872845</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>74</v>
@@ -4024,19 +4024,19 @@
         <v>69947</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>56589</v>
+        <v>55394</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>85317</v>
+        <v>85018</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.1980694448608519</v>
+        <v>0.1980694448608518</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1602456938843803</v>
+        <v>0.1568595700160293</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2415929138448706</v>
+        <v>0.2407471677541969</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>133</v>
@@ -4045,19 +4045,19 @@
         <v>147214</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>125195</v>
+        <v>128081</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>168699</v>
+        <v>172120</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1964209015608283</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1670419776032241</v>
+        <v>0.1708924818687479</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2250876614512979</v>
+        <v>0.2296510453717057</v>
       </c>
     </row>
     <row r="51">
@@ -4149,19 +4149,19 @@
         <v>114086</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>95647</v>
+        <v>96907</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>133313</v>
+        <v>134481</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.06877056185073792</v>
+        <v>0.06877056185073793</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.0576554204856105</v>
+        <v>0.05841489634642432</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.08036052965011468</v>
+        <v>0.08106477020703683</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>234</v>
@@ -4170,19 +4170,19 @@
         <v>133895</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>119605</v>
+        <v>117186</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>150992</v>
+        <v>153167</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.08275460574614196</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.07392227644251288</v>
+        <v>0.07242725941171455</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.09332150115212801</v>
+        <v>0.0946658402003247</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>392</v>
@@ -4191,19 +4191,19 @@
         <v>247981</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>220980</v>
+        <v>222214</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>274725</v>
+        <v>272566</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.07567518483110591</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.06743539794269676</v>
+        <v>0.06781180401680927</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.08383652474291389</v>
+        <v>0.08317758425497851</v>
       </c>
     </row>
     <row r="53">
@@ -4220,19 +4220,19 @@
         <v>72339</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>58577</v>
+        <v>58165</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>86936</v>
+        <v>87403</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.04360579901323593</v>
+        <v>0.04360579901323594</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.03530992074674808</v>
+        <v>0.03506157968001502</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.05240468714992618</v>
+        <v>0.05268602663293407</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>100</v>
@@ -4241,19 +4241,19 @@
         <v>66744</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>54539</v>
+        <v>54947</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>80979</v>
+        <v>82129</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.04125135670349685</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.03370840347377271</v>
+        <v>0.03396054872029029</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.05004963389908781</v>
+        <v>0.05076020382986514</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>195</v>
@@ -4262,19 +4262,19 @@
         <v>139083</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>120989</v>
+        <v>119175</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>160162</v>
+        <v>158739</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.04244329290274539</v>
+        <v>0.0424432929027454</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.0369214849857991</v>
+        <v>0.03636798174652227</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.04887586836710284</v>
+        <v>0.04844158204006859</v>
       </c>
     </row>
     <row r="54">
@@ -4291,19 +4291,19 @@
         <v>168271</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>145496</v>
+        <v>147253</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>194902</v>
+        <v>192192</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.101433206244976</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.08770458712688586</v>
+        <v>0.08876363237903834</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.1174858772782135</v>
+        <v>0.1158525905344142</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>295</v>
@@ -4312,19 +4312,19 @@
         <v>180917</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>162295</v>
+        <v>160140</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>201646</v>
+        <v>203104</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.1118170044073547</v>
+        <v>0.1118170044073548</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1003075146718077</v>
+        <v>0.09897512899653139</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1246285655573282</v>
+        <v>0.1255295907832243</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>490</v>
@@ -4333,19 +4333,19 @@
         <v>349189</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>315772</v>
+        <v>315943</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>382614</v>
+        <v>379618</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1065602075581675</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.09636264185361693</v>
+        <v>0.09641472313012139</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.116760457455084</v>
+        <v>0.1158460069196958</v>
       </c>
     </row>
     <row r="55">
@@ -4362,19 +4362,19 @@
         <v>524027</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>484869</v>
+        <v>487511</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>561871</v>
+        <v>565764</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.3158807834169646</v>
+        <v>0.3158807834169647</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2922768982593275</v>
+        <v>0.2938692826605601</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3386933494637529</v>
+        <v>0.3410401296333979</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>751</v>
@@ -4383,19 +4383,19 @@
         <v>502780</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>468863</v>
+        <v>472489</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>532595</v>
+        <v>534272</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.3107459315123862</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2897835698038139</v>
+        <v>0.2920245064172858</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3291731769609016</v>
+        <v>0.3302096251859776</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1284</v>
@@ -4404,19 +4404,19 @@
         <v>1026807</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>974077</v>
+        <v>979539</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1077396</v>
+        <v>1081418</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.3133454498091525</v>
+        <v>0.3133454498091524</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2972543218864419</v>
+        <v>0.2989211446854489</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.3287834266717107</v>
+        <v>0.3300108241239766</v>
       </c>
     </row>
     <row r="56">
@@ -4433,19 +4433,19 @@
         <v>780215</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>734347</v>
+        <v>738076</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>823340</v>
+        <v>825683</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.4703096494740854</v>
+        <v>0.4703096494740855</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.4426610193983254</v>
+        <v>0.4449088271777498</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4963053417138547</v>
+        <v>0.4977178913622053</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1024</v>
@@ -4454,19 +4454,19 @@
         <v>733642</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>699959</v>
+        <v>698195</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>770708</v>
+        <v>768231</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.4534311016306201</v>
+        <v>0.4534311016306202</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.4326133186900145</v>
+        <v>0.4315228660260608</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.4763403541029118</v>
+        <v>0.4748090021718042</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1742</v>
@@ -4475,19 +4475,19 @@
         <v>1513856</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1460864</v>
+        <v>1455957</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1578531</v>
+        <v>1566555</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.4619758648988288</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.4458044299008347</v>
+        <v>0.4443069735938577</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.4817122816467032</v>
+        <v>0.4780577802937808</v>
       </c>
     </row>
     <row r="57">
